--- a/Documentação/BackLog/MetodologiasEBackLog-GR05.xlsx
+++ b/Documentação/BackLog/MetodologiasEBackLog-GR05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/249c92f571d57ca1/Área de Trabalho/sprint2/Moum-Soya/BackLog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/249c92f571d57ca1/Área de Trabalho/sprint2/Moum-Soya/Documentação/BackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{0DC12159-227E-4C0B-A503-7B4B9320355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18D7B9B4-7068-4EE0-BF55-A23A96CFF630}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{0DC12159-227E-4C0B-A503-7B4B9320355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945BC14F-8F86-4F44-B97D-18994736F302}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -954,9 +954,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1010,6 +1007,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,7 +1020,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2427,28 +2427,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="91" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="91" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -2565,21 +2565,21 @@
       <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="38">
         <f>SUM(F3:F60)</f>
         <v>588</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="40">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -2610,21 +2610,21 @@
       <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="32">
         <f>SUM(F3:F24)</f>
         <v>196</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="36">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -2655,21 +2655,21 @@
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="34">
         <f>SUM(F25:F42)</f>
         <v>194</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="36">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2700,21 +2700,21 @@
       <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <f>SUM(F43:F60)</f>
         <v>198</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2745,22 +2745,22 @@
       <c r="J8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="43">
         <f>AVERAGE(N5:N7)</f>
         <v>196</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="46">
         <f>AVERAGE(Q5:Q7)</f>
         <v>99.333333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2791,20 +2791,20 @@
       <c r="J9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="41" t="s">
         <v>42</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>52</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>68</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>82</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>85</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>89</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>92</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>104</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>106</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>112</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
@@ -3888,11 +3888,11 @@
       <c r="I43" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>120</v>
       </c>
@@ -3920,11 +3920,11 @@
       <c r="I44" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
@@ -3952,11 +3952,11 @@
       <c r="I45" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>124</v>
       </c>
@@ -3984,12 +3984,12 @@
       <c r="I46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K46" s="52"/>
-    </row>
-    <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="47"/>
+    </row>
+    <row r="47" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>126</v>
       </c>
@@ -4017,11 +4017,11 @@
       <c r="I47" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="J47" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>128</v>
       </c>
@@ -4049,12 +4049,12 @@
       <c r="I48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="52"/>
-    </row>
-    <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="J48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="47"/>
+    </row>
+    <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>130</v>
       </c>
@@ -4080,14 +4080,14 @@
         <v>35</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K49" s="52"/>
-    </row>
-    <row r="50" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="47"/>
+    </row>
+    <row r="50" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>132</v>
       </c>
@@ -4115,11 +4115,11 @@
       <c r="I50" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>134</v>
       </c>
@@ -4147,11 +4147,11 @@
       <c r="I51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>136</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>138</v>
       </c>
@@ -4211,11 +4211,11 @@
       <c r="I53" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>140</v>
       </c>
@@ -4243,12 +4243,12 @@
       <c r="I54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K54" s="52"/>
-    </row>
-    <row r="55" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="J54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="47"/>
+    </row>
+    <row r="55" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>142</v>
       </c>
@@ -4274,14 +4274,14 @@
         <v>35</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="52"/>
-    </row>
-    <row r="56" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K55" s="47"/>
+    </row>
+    <row r="56" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>144</v>
       </c>
@@ -4307,13 +4307,13 @@
         <v>35</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>146</v>
       </c>
@@ -4341,11 +4341,11 @@
       <c r="I57" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>148</v>
       </c>
@@ -4373,15 +4373,15 @@
       <c r="I58" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C59" s="24" t="s">
@@ -4405,18 +4405,18 @@
       <c r="I59" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="J59" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7">
@@ -4454,12 +4454,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cc742c03ab36aa87466a9c68feca297">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7a3de26cefa8042fb80bd6689b2d941" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -4609,6 +4603,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4619,22 +4619,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D996E2-2738-449B-ADA8-E6769880D412}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD12F661-93DF-41F2-B906-EE9B8965009D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4652,6 +4636,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D996E2-2738-449B-ADA8-E6769880D412}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C884185-1C22-44A8-BD74-F9D8A0E207E0}">
   <ds:schemaRefs>
